--- a/data/trans_bre/P19C03-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.4979146799891365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.504723683165867</v>
+        <v>-4.504723683165865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.04221280324367751</v>
@@ -649,7 +649,7 @@
         <v>-0.018323147934841</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1827240530404534</v>
+        <v>-0.1827240530404533</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.913424286303471</v>
+        <v>-7.484956728086178</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.287334992251684</v>
+        <v>-3.370883400493133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.391530893725481</v>
+        <v>-4.757564346310102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.77631376838712</v>
+        <v>-10.51815689216604</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2270313363206881</v>
+        <v>-0.2412050268284434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1099036762333893</v>
+        <v>-0.1135021467048298</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1817828094980309</v>
+        <v>-0.1607659955273097</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3740385850378322</v>
+        <v>-0.3749119861006307</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.687684093393635</v>
+        <v>4.345776778102154</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.47629887404877</v>
+        <v>5.227745500624787</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.502352982245164</v>
+        <v>4.306398606203427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.469995257556248</v>
+        <v>1.163807038710639</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1958611832689896</v>
+        <v>0.1803388350233313</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2184926737473961</v>
+        <v>0.2069872894041591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.142164971749365</v>
+        <v>0.1708823085580455</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07273249625160519</v>
+        <v>0.05435478708915664</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.211732831610315</v>
+        <v>-1.253087638428728</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.026814640725688</v>
+        <v>-7.052654183040617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.85271599666249</v>
+        <v>-11.05214461649798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.701483107694413</v>
+        <v>-5.929240945576868</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03682890914247276</v>
+        <v>-0.0389888191329251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2055075698372115</v>
+        <v>-0.2119800238758264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3111132450112856</v>
+        <v>-0.3140842508589051</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2556045457394118</v>
+        <v>-0.2559698787551349</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.833403346071288</v>
+        <v>8.178356825227381</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.135722774499196</v>
+        <v>2.462217506176513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.474922951017772</v>
+        <v>-1.65192169577877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.729038628978741</v>
+        <v>1.747702385194945</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2683525571769375</v>
+        <v>0.2826132089608502</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07865349382950595</v>
+        <v>0.08846994012037086</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04698521366114191</v>
+        <v>-0.05378818964883497</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09605933579267284</v>
+        <v>0.09587099468737485</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.79415783741494</v>
+        <v>-5.870731635595618</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.132573422606143</v>
+        <v>-4.415907060339729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.677369444955767</v>
+        <v>-3.204847727193607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.888125947319792</v>
+        <v>-3.195689985755475</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1518615326784703</v>
+        <v>-0.1547936106131028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1301713210915015</v>
+        <v>-0.1370041687889176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.09600386150071138</v>
+        <v>-0.1104436473521784</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1602559822101107</v>
+        <v>-0.1764558396477298</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.04734917971737</v>
+        <v>3.15183497567405</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.160150888831964</v>
+        <v>5.359549083484119</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.70043610703296</v>
+        <v>6.455976374846729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.431506781104639</v>
+        <v>3.556287321131488</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09151764206533736</v>
+        <v>0.09369190735463807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1830900387522924</v>
+        <v>0.1890008105599045</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2762327392565491</v>
+        <v>0.2727931138377203</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2400897283582892</v>
+        <v>0.2531166470366137</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.787168988179154</v>
+        <v>-5.828285808901235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.03937256379927</v>
+        <v>-12.06249961490587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.602094602979383</v>
+        <v>-4.922059221001596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.481177582312018</v>
+        <v>-2.588196623317348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1651505783324782</v>
+        <v>-0.1645438386141339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3553647471784885</v>
+        <v>-0.3502886851708284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1852148456141622</v>
+        <v>-0.1990380348475294</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.120887934529003</v>
+        <v>-0.1292215524141203</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.944724863040319</v>
+        <v>9.27941456476044</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.007903412743302</v>
+        <v>1.172318741642224</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.867492845026897</v>
+        <v>7.18830378660512</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.945930138103352</v>
+        <v>4.875785393620462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3293719205656387</v>
+        <v>0.3233304617209269</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03170904731776122</v>
+        <v>0.04889710065484957</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3589807380638714</v>
+        <v>0.3749043683915663</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3052716580195475</v>
+        <v>0.3033894659353035</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.257623206908309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.7061306669897155</v>
+        <v>-0.7061306669897183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.005155683483662583</v>
@@ -1049,7 +1049,7 @@
         <v>-0.04559013466155856</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.0371463543449406</v>
+        <v>-0.03714635434494074</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.533844691783643</v>
+        <v>-2.786490295034219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.487301206786947</v>
+        <v>-3.321263675936627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.700052098990383</v>
+        <v>-3.558545844276204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.685177172975248</v>
+        <v>-2.638117689339008</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07676965082904083</v>
+        <v>-0.08381679695977921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1124023541014981</v>
+        <v>-0.1077513506365613</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1294667248409696</v>
+        <v>-0.125370699571155</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1368485058902079</v>
+        <v>-0.1291710431927979</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.678796723918824</v>
+        <v>2.449341972317098</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.376761326063051</v>
+        <v>1.442364527798554</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.453630117929752</v>
+        <v>1.277621685070671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.285819324892759</v>
+        <v>1.292605576295515</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08758676812572887</v>
+        <v>0.07984627789072872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04788648088967246</v>
+        <v>0.04957366180393256</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05446627057585019</v>
+        <v>0.04751146578659125</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07266437957742357</v>
+        <v>0.0707168415213453</v>
       </c>
     </row>
     <row r="19">
